--- a/DataPreVaksin.xlsx
+++ b/DataPreVaksin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\prediksi-covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bagas\Skripsi\prediksi-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3EEE94-CB36-43DD-8081-7022FFD5A582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D5542D-ED3B-4048-86EB-629C1B93F1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B34E7DAB-4D52-4005-8372-F12BC5D176C5}"/>
+    <workbookView xWindow="870" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{B34E7DAB-4D52-4005-8372-F12BC5D176C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,16 +385,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F924D913-4D3C-472C-BC71-B8870F28BB5A}">
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A242" sqref="A2:B242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43928</v>
       </c>
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43934</v>
       </c>
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43938</v>
       </c>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43949</v>
       </c>
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43951</v>
       </c>
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43952</v>
       </c>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43960</v>
       </c>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43967</v>
       </c>
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43977</v>
       </c>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43980</v>
       </c>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43981</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43982</v>
       </c>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43987</v>
       </c>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43990</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43992</v>
       </c>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43993</v>
       </c>
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44001</v>
       </c>
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44002</v>
       </c>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44004</v>
       </c>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44005</v>
       </c>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44006</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44007</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44008</v>
       </c>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44009</v>
       </c>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44011</v>
       </c>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44012</v>
       </c>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44013</v>
       </c>
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44014</v>
       </c>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44018</v>
       </c>
@@ -634,7 +634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44019</v>
       </c>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44020</v>
       </c>
@@ -650,7 +650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44021</v>
       </c>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44025</v>
       </c>
@@ -666,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44026</v>
       </c>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44027</v>
       </c>
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44028</v>
       </c>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44029</v>
       </c>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44030</v>
       </c>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44031</v>
       </c>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44033</v>
       </c>
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44034</v>
       </c>
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44035</v>
       </c>
@@ -738,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44036</v>
       </c>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44037</v>
       </c>
@@ -754,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44040</v>
       </c>
@@ -762,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44041</v>
       </c>
@@ -770,7 +770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44042</v>
       </c>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44043</v>
       </c>
@@ -786,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44044</v>
       </c>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44047</v>
       </c>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44048</v>
       </c>
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44049</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44050</v>
       </c>
@@ -826,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44051</v>
       </c>
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44052</v>
       </c>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44054</v>
       </c>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44055</v>
       </c>
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44056</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44057</v>
       </c>
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44059</v>
       </c>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44060</v>
       </c>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44061</v>
       </c>
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44062</v>
       </c>
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44063</v>
       </c>
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44065</v>
       </c>
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44066</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44067</v>
       </c>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44068</v>
       </c>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44069</v>
       </c>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44070</v>
       </c>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44071</v>
       </c>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44072</v>
       </c>
@@ -978,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44073</v>
       </c>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44074</v>
       </c>
@@ -994,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44075</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44076</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44077</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44078</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44079</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44080</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44081</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44082</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44083</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44084</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44085</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44086</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44088</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44089</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44090</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44091</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44092</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44093</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44094</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44095</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44096</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44097</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44098</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44099</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44100</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44101</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44102</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44103</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44104</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44105</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44106</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44107</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44108</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44109</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44110</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44111</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44112</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44113</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44114</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44115</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44116</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44117</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44118</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44119</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44120</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44121</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44122</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44123</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44124</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44125</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44126</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44127</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44128</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44129</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44130</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44131</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44132</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44133</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44134</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44135</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44136</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44137</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44138</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44139</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44140</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44141</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44142</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44143</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44144</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44145</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44146</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44147</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44148</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44149</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44150</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44151</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44152</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44153</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44154</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44155</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44156</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44157</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44158</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44159</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44160</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44161</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44162</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44163</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44164</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44165</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44166</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44167</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44168</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44169</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44170</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44171</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44172</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44173</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44174</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44175</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44176</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44177</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44178</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44179</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44180</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44181</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44182</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44183</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44184</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44185</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44186</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44188</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44189</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44190</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44191</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44192</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44193</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44194</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44195</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44196</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44197</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44198</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44199</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44200</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44201</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44202</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44203</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44204</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44205</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44206</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44207</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44208</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44209</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44210</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44211</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44212</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44213</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44214</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44215</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44216</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44217</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44218</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44219</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44220</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44221</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44222</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44223</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44224</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44225</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44226</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44227</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44229</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44230</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44231</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44232</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44233</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44235</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44236</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44237</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44238</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44239</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44240</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44243</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44246</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44247</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44249</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44250</v>
       </c>
@@ -2330,29 +2330,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="1">
-        <v>44251</v>
-      </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1">
-        <v>44254</v>
-      </c>
-      <c r="B244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
-        <v>44255</v>
-      </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
